--- a/data/CTRPG Spreadsheet.xlsx
+++ b/data/CTRPG Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djerr\Documents\Game Development\Projects\Crafting RPG Tactics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8339EB-81A6-44A0-8E3A-0D2F1671CD15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A96F0-B10B-4D83-AABD-80D40B70BD18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F75CB246-C95A-43CB-8149-AE7C498DED0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{F75CB246-C95A-43CB-8149-AE7C498DED0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="2" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED3B433-3643-4E44-867E-7CA1D3769DAA}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1692,11 +1692,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H13" xr:uid="{6CC5B39F-8091-42C0-B493-24435249D556}">
-    <sortState ref="A2:H13">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
       <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:H13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E80F3B-D207-4DC3-993A-57489E558763}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/data/CTRPG Spreadsheet.xlsx
+++ b/data/CTRPG Spreadsheet.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djerr\Documents\Game Development\Projects\Crafting RPG Tactics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E918DE-185E-4020-882B-C9E946B59DEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA046FC8-1894-44EE-BB9F-87BA2CACD695}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="5" xr2:uid="{F75CB246-C95A-43CB-8149-AE7C498DED0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{F75CB246-C95A-43CB-8149-AE7C498DED0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="2" r:id="rId1"/>
-    <sheet name="Zodiac" sheetId="1" r:id="rId2"/>
+    <sheet name="Flavors" sheetId="1" r:id="rId2"/>
     <sheet name="Ailments" sheetId="5" r:id="rId3"/>
-    <sheet name="Weapons" sheetId="3" r:id="rId4"/>
-    <sheet name="Attacks" sheetId="4" r:id="rId5"/>
-    <sheet name="Damage Chart" sheetId="6" r:id="rId6"/>
-    <sheet name="Ext. DMG Chart" sheetId="7" r:id="rId7"/>
+    <sheet name="Utensils" sheetId="8" r:id="rId4"/>
+    <sheet name="Ingredients" sheetId="9" r:id="rId5"/>
+    <sheet name="Attacks" sheetId="4" r:id="rId6"/>
+    <sheet name="Damage Chart" sheetId="6" r:id="rId7"/>
+    <sheet name="Ext. DMG Chart" sheetId="7" r:id="rId8"/>
+    <sheet name="Weapons" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Zodiac!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Flavors!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -734,6 +736,66 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>SPICY</t>
+  </si>
+  <si>
+    <t>SWEET</t>
+  </si>
+  <si>
+    <t>SOUR</t>
+  </si>
+  <si>
+    <t>BITTER</t>
+  </si>
+  <si>
+    <t>UMAMI</t>
+  </si>
+  <si>
+    <t>Spoon (S)</t>
+  </si>
+  <si>
+    <t>Fork (F)</t>
+  </si>
+  <si>
+    <t>Spork (SF)</t>
+  </si>
+  <si>
+    <t>Ladle (L)</t>
+  </si>
+  <si>
+    <t>Frying Pan (FP)</t>
+  </si>
+  <si>
+    <t>B/P</t>
+  </si>
+  <si>
+    <t>Butcher's Knife</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Non-Food Essentials</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Refined Rock</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Alloy</t>
+  </si>
+  <si>
+    <t>Damascus</t>
   </si>
 </sst>
 </file>
@@ -743,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +888,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dosis"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dosis"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -853,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -918,6 +991,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA00D0C-19A8-40C5-B0B8-B8AF862AAA1D}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1894,6 +1969,31 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2122,23 +2222,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEB30D9-8075-4ED2-8854-880A5DCEFD65}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2932F58-BEFB-46E8-883B-BA0A2D3FA59D}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2148,53 +2245,32 @@
       <c r="C1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
@@ -2203,51 +2279,51 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
@@ -2258,7 +2334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>98</v>
       </c>
@@ -2269,7 +2345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>99</v>
       </c>
@@ -2286,6 +2362,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7CB8A-3757-4344-9345-0AE341D485AB}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E80F3B-D207-4DC3-993A-57489E558763}">
   <dimension ref="A1:K37"/>
   <sheetViews>
@@ -3202,12 +3337,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705155EC-BDF7-4534-B72F-0D504DE58852}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3359,7 @@
         <v>225</v>
       </c>
       <c r="B1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>223</v>
@@ -3238,7 +3373,7 @@
         <v>224</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3312,83 +3447,83 @@
       </c>
       <c r="B5" s="25">
         <f>($A5*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="25">
         <f>($A5*($B$1+$B$2))/(100+$E$1*C$4)</f>
-        <v>2.6086956521739131</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:U10" si="0">($A5*($B$1+$B$2))/(100+$E$1*D$4)</f>
-        <v>2.3076923076923075</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>2.0689655172413794</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="F5" s="25">
         <f t="shared" si="0"/>
-        <v>1.875</v>
+        <v>3.125</v>
       </c>
       <c r="G5" s="25">
         <f t="shared" si="0"/>
-        <v>1.7142857142857142</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H5" s="25">
         <f t="shared" si="0"/>
-        <v>1.5789473684210527</v>
+        <v>2.6315789473684212</v>
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>1.4634146341463414</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="0"/>
-        <v>1.3636363636363635</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="K5" s="25">
         <f t="shared" si="0"/>
-        <v>1.2765957446808511</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M5" s="25">
         <f t="shared" si="0"/>
-        <v>1.1320754716981132</v>
+        <v>1.8867924528301887</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" si="0"/>
-        <v>1.0714285714285714</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="O5" s="25">
         <f t="shared" si="0"/>
-        <v>1.0169491525423728</v>
+        <v>1.6949152542372881</v>
       </c>
       <c r="P5" s="25">
         <f t="shared" si="0"/>
-        <v>0.967741935483871</v>
+        <v>1.6129032258064515</v>
       </c>
       <c r="Q5" s="25">
         <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="R5" s="25">
         <f t="shared" si="0"/>
-        <v>0.88235294117647056</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="S5" s="25">
         <f t="shared" si="0"/>
-        <v>0.84507042253521125</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="T5" s="25">
         <f t="shared" ref="S5:T20" si="1">($A5*($B$1+$B$2))/(100+$E$1*T$4)</f>
-        <v>0.81081081081081086</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" si="0"/>
-        <v>0.77922077922077926</v>
+        <v>1.2987012987012987</v>
       </c>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
@@ -3399,83 +3534,83 @@
       </c>
       <c r="B6" s="25">
         <f>($A6*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="25">
         <f t="shared" ref="C6:U23" si="2">($A6*($B$1+$B$2))/(100+$E$1*C$4)</f>
-        <v>5.2173913043478262</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>4.615384615384615</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" si="2"/>
-        <v>4.1379310344827589</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="2"/>
-        <v>3.4285714285714284</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="H6" s="25">
         <f t="shared" si="0"/>
-        <v>3.1578947368421053</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="I6" s="25">
         <f t="shared" si="2"/>
-        <v>2.9268292682926829</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="0"/>
-        <v>2.7272727272727271</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" si="2"/>
-        <v>2.5531914893617023</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M6" s="25">
         <f t="shared" si="2"/>
-        <v>2.2641509433962264</v>
+        <v>3.7735849056603774</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="2"/>
-        <v>2.1428571428571428</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="O6" s="25">
         <f t="shared" si="2"/>
-        <v>2.0338983050847457</v>
+        <v>3.3898305084745761</v>
       </c>
       <c r="P6" s="25">
         <f t="shared" si="2"/>
-        <v>1.935483870967742</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q6" s="25">
         <f t="shared" si="2"/>
-        <v>1.8461538461538463</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="R6" s="25">
         <f t="shared" si="2"/>
-        <v>1.7647058823529411</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="S6" s="25">
         <f t="shared" si="2"/>
-        <v>1.6901408450704225</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="T6" s="25">
         <f t="shared" si="1"/>
-        <v>1.6216216216216217</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="U6" s="25">
         <f t="shared" si="2"/>
-        <v>1.5584415584415585</v>
+        <v>2.5974025974025974</v>
       </c>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
@@ -3486,83 +3621,83 @@
       </c>
       <c r="B7" s="25">
         <f>($A7*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="25">
         <f t="shared" si="2"/>
-        <v>7.8260869565217392</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>6.9230769230769234</v>
+        <v>11.538461538461538</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="2"/>
-        <v>6.2068965517241379</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="0"/>
-        <v>5.625</v>
+        <v>9.375</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="2"/>
-        <v>5.1428571428571432</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" si="0"/>
-        <v>4.7368421052631575</v>
+        <v>7.8947368421052628</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="2"/>
-        <v>4.3902439024390247</v>
+        <v>7.3170731707317076</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>4.0909090909090908</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="2"/>
-        <v>3.8297872340425534</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M7" s="25">
         <f t="shared" si="2"/>
-        <v>3.3962264150943398</v>
+        <v>5.6603773584905657</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="2"/>
-        <v>3.2142857142857144</v>
+        <v>5.3571428571428568</v>
       </c>
       <c r="O7" s="25">
         <f t="shared" si="2"/>
-        <v>3.0508474576271185</v>
+        <v>5.0847457627118642</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="2"/>
-        <v>2.903225806451613</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" si="2"/>
-        <v>2.7692307692307692</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" si="2"/>
-        <v>2.6470588235294117</v>
+        <v>4.4117647058823533</v>
       </c>
       <c r="S7" s="25">
         <f t="shared" si="1"/>
-        <v>2.535211267605634</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="1"/>
-        <v>2.4324324324324325</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" ref="U5:W20" si="3">($A7*($B$1+$B$2))/(100+$E$1*U$4)</f>
-        <v>2.3376623376623376</v>
+        <v>3.8961038961038961</v>
       </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
@@ -3573,83 +3708,83 @@
       </c>
       <c r="B8" s="25">
         <f>($A8*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="25">
         <f t="shared" si="2"/>
-        <v>10.434782608695652</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>9.2307692307692299</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="E8" s="25">
         <f t="shared" si="2"/>
-        <v>8.2758620689655178</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="2"/>
-        <v>6.8571428571428568</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>6.3157894736842106</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="2"/>
-        <v>5.8536585365853657</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="0"/>
-        <v>5.4545454545454541</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="2"/>
-        <v>5.1063829787234045</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="M8" s="25">
         <f t="shared" si="2"/>
-        <v>4.5283018867924527</v>
+        <v>7.5471698113207548</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="2"/>
-        <v>4.2857142857142856</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" si="2"/>
-        <v>4.0677966101694913</v>
+        <v>6.7796610169491522</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="2"/>
-        <v>3.870967741935484</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="2"/>
-        <v>3.6923076923076925</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="2"/>
-        <v>3.5294117647058822</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" si="1"/>
-        <v>3.380281690140845</v>
+        <v>5.6338028169014081</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="1"/>
-        <v>3.2432432432432434</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="U8" s="25">
         <f t="shared" si="3"/>
-        <v>3.116883116883117</v>
+        <v>5.1948051948051948</v>
       </c>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
@@ -3660,83 +3795,83 @@
       </c>
       <c r="B9" s="25">
         <f>($A9*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="25">
         <f t="shared" si="2"/>
-        <v>13.043478260869565</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>11.538461538461538</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="2"/>
-        <v>10.344827586206897</v>
+        <v>17.241379310344829</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="0"/>
-        <v>9.375</v>
+        <v>15.625</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="0"/>
-        <v>7.8947368421052628</v>
+        <v>13.157894736842104</v>
       </c>
       <c r="I9" s="25">
         <f t="shared" si="2"/>
-        <v>7.3170731707317076</v>
+        <v>12.195121951219512</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="0"/>
-        <v>6.8181818181818183</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="K9" s="25">
         <f t="shared" si="2"/>
-        <v>6.3829787234042552</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M9" s="25">
         <f t="shared" si="2"/>
-        <v>5.6603773584905657</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="2"/>
-        <v>5.3571428571428568</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>5.0847457627118642</v>
+        <v>8.4745762711864412</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="2"/>
-        <v>4.838709677419355</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="2"/>
-        <v>4.615384615384615</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="2"/>
-        <v>4.4117647058823533</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="1"/>
-        <v>4.225352112676056</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="T9" s="25">
         <f t="shared" si="1"/>
-        <v>4.0540540540540544</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="U9" s="25">
         <f t="shared" si="3"/>
-        <v>3.8961038961038961</v>
+        <v>6.4935064935064934</v>
       </c>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
@@ -3747,83 +3882,83 @@
       </c>
       <c r="B10" s="25">
         <f>($A10*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C10" s="25">
         <f t="shared" si="2"/>
-        <v>15.652173913043478</v>
+        <v>26.086956521739129</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="0"/>
-        <v>13.846153846153847</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="2"/>
-        <v>12.413793103448276</v>
+        <v>20.689655172413794</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>18.75</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="2"/>
-        <v>10.285714285714286</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="H10" s="25">
         <f t="shared" si="0"/>
-        <v>9.473684210526315</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="I10" s="25">
         <f t="shared" si="2"/>
-        <v>8.7804878048780495</v>
+        <v>14.634146341463415</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="0"/>
-        <v>8.1818181818181817</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="K10" s="25">
         <f t="shared" si="2"/>
-        <v>7.6595744680851068</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" si="2"/>
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="M10" s="25">
         <f t="shared" si="2"/>
-        <v>6.7924528301886795</v>
+        <v>11.320754716981131</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="2"/>
-        <v>6.4285714285714288</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>6.101694915254237</v>
+        <v>10.169491525423728</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="2"/>
-        <v>5.806451612903226</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="2"/>
-        <v>5.5384615384615383</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="2"/>
-        <v>5.2941176470588234</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="1"/>
-        <v>5.070422535211268</v>
+        <v>8.4507042253521121</v>
       </c>
       <c r="T10" s="25">
         <f t="shared" si="1"/>
-        <v>4.8648648648648649</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="U10" s="25">
         <f t="shared" si="3"/>
-        <v>4.6753246753246751</v>
+        <v>7.7922077922077921</v>
       </c>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
@@ -3834,83 +3969,83 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" ref="B11:J23" si="4">($A11*($B$1+$B$2))/(100+$E$1*B$4)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="2"/>
-        <v>18.260869565217391</v>
+        <v>30.434782608695652</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="4"/>
-        <v>16.153846153846153</v>
+        <v>26.923076923076923</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="2"/>
-        <v>14.482758620689655</v>
+        <v>24.137931034482758</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="4"/>
-        <v>13.125</v>
+        <v>21.875</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="4"/>
-        <v>11.052631578947368</v>
+        <v>18.421052631578949</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="2"/>
-        <v>10.24390243902439</v>
+        <v>17.073170731707318</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="4"/>
-        <v>9.545454545454545</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="K11" s="25">
         <f t="shared" si="2"/>
-        <v>8.9361702127659566</v>
+        <v>14.893617021276595</v>
       </c>
       <c r="L11" s="25">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="M11" s="25">
         <f t="shared" si="2"/>
-        <v>7.9245283018867925</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>7.1186440677966099</v>
+        <v>11.864406779661017</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="2"/>
-        <v>6.774193548387097</v>
+        <v>11.290322580645162</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="2"/>
-        <v>6.4615384615384617</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="2"/>
-        <v>6.1764705882352944</v>
+        <v>10.294117647058824</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="1"/>
-        <v>5.915492957746479</v>
+        <v>9.8591549295774641</v>
       </c>
       <c r="T11" s="25">
         <f t="shared" si="1"/>
-        <v>5.6756756756756754</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="U11" s="25">
         <f t="shared" si="3"/>
-        <v>5.4545454545454541</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
@@ -3921,83 +4056,83 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="2"/>
-        <v>20.869565217391305</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="4"/>
-        <v>18.46153846153846</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="E12" s="25">
         <f t="shared" si="2"/>
-        <v>16.551724137931036</v>
+        <v>27.586206896551722</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="2"/>
-        <v>13.714285714285714</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="H12" s="25">
         <f t="shared" si="4"/>
-        <v>12.631578947368421</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="I12" s="25">
         <f t="shared" si="2"/>
-        <v>11.707317073170731</v>
+        <v>19.512195121951219</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="4"/>
-        <v>10.909090909090908</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="K12" s="25">
         <f t="shared" si="2"/>
-        <v>10.212765957446809</v>
+        <v>17.021276595744681</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="M12" s="25">
         <f t="shared" si="2"/>
-        <v>9.0566037735849054</v>
+        <v>15.09433962264151</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>8.1355932203389827</v>
+        <v>13.559322033898304</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="2"/>
-        <v>7.741935483870968</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="2"/>
-        <v>7.384615384615385</v>
+        <v>12.307692307692308</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="2"/>
-        <v>7.0588235294117645</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="1"/>
-        <v>6.76056338028169</v>
+        <v>11.267605633802816</v>
       </c>
       <c r="T12" s="25">
         <f t="shared" si="1"/>
-        <v>6.4864864864864868</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="U12" s="25">
         <f t="shared" si="3"/>
-        <v>6.2337662337662341</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
@@ -4008,83 +4143,83 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25">
         <f t="shared" si="2"/>
-        <v>23.478260869565219</v>
+        <v>39.130434782608695</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="4"/>
-        <v>20.76923076923077</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="E13" s="25">
         <f t="shared" si="2"/>
-        <v>18.620689655172413</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="4"/>
-        <v>16.875</v>
+        <v>28.125</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="2"/>
-        <v>15.428571428571429</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="H13" s="25">
         <f t="shared" si="4"/>
-        <v>14.210526315789474</v>
+        <v>23.684210526315791</v>
       </c>
       <c r="I13" s="25">
         <f t="shared" si="2"/>
-        <v>13.170731707317072</v>
+        <v>21.951219512195124</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="4"/>
-        <v>12.272727272727273</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="K13" s="25">
         <f t="shared" si="2"/>
-        <v>11.48936170212766</v>
+        <v>19.148936170212767</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="2"/>
-        <v>10.8</v>
+        <v>18</v>
       </c>
       <c r="M13" s="25">
         <f t="shared" si="2"/>
-        <v>10.188679245283019</v>
+        <v>16.981132075471699</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="2"/>
-        <v>9.6428571428571423</v>
+        <v>16.071428571428573</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>9.1525423728813564</v>
+        <v>15.254237288135593</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="2"/>
-        <v>8.7096774193548381</v>
+        <v>14.516129032258064</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="2"/>
-        <v>8.3076923076923084</v>
+        <v>13.846153846153847</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="2"/>
-        <v>7.9411764705882355</v>
+        <v>13.235294117647058</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="1"/>
-        <v>7.605633802816901</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="T13" s="25">
         <f t="shared" si="1"/>
-        <v>7.2972972972972974</v>
+        <v>12.162162162162161</v>
       </c>
       <c r="U13" s="25">
         <f t="shared" si="3"/>
-        <v>7.0129870129870131</v>
+        <v>11.688311688311689</v>
       </c>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
@@ -4095,83 +4230,83 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" s="25">
         <f t="shared" si="2"/>
-        <v>26.086956521739129</v>
+        <v>43.478260869565219</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="4"/>
-        <v>23.076923076923077</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="E14" s="25">
         <f t="shared" si="2"/>
-        <v>20.689655172413794</v>
+        <v>34.482758620689658</v>
       </c>
       <c r="F14" s="25">
         <f t="shared" si="4"/>
-        <v>18.75</v>
+        <v>31.25</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="2"/>
-        <v>17.142857142857142</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="H14" s="25">
         <f t="shared" si="4"/>
-        <v>15.789473684210526</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="I14" s="25">
         <f t="shared" si="2"/>
-        <v>14.634146341463415</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="4"/>
-        <v>13.636363636363637</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="K14" s="25">
         <f t="shared" si="2"/>
-        <v>12.76595744680851</v>
+        <v>21.276595744680851</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M14" s="25">
         <f t="shared" si="2"/>
-        <v>11.320754716981131</v>
+        <v>18.867924528301888</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="2"/>
-        <v>10.714285714285714</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>10.169491525423728</v>
+        <v>16.949152542372882</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="2"/>
-        <v>9.67741935483871</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="2"/>
-        <v>9.2307692307692299</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="2"/>
-        <v>8.8235294117647065</v>
+        <v>14.705882352941176</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="1"/>
-        <v>8.4507042253521121</v>
+        <v>14.084507042253522</v>
       </c>
       <c r="T14" s="25">
         <f t="shared" si="1"/>
-        <v>8.1081081081081088</v>
+        <v>13.513513513513514</v>
       </c>
       <c r="U14" s="25">
         <f t="shared" si="3"/>
-        <v>7.7922077922077921</v>
+        <v>12.987012987012987</v>
       </c>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
@@ -4182,83 +4317,83 @@
       </c>
       <c r="B15" s="25">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C15" s="25">
         <f t="shared" si="2"/>
-        <v>28.695652173913043</v>
+        <v>47.826086956521742</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="4"/>
-        <v>25.384615384615383</v>
+        <v>42.307692307692307</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="2"/>
-        <v>22.758620689655171</v>
+        <v>37.931034482758619</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="4"/>
-        <v>20.625</v>
+        <v>34.375</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="2"/>
-        <v>18.857142857142858</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="4"/>
-        <v>17.368421052631579</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" si="2"/>
-        <v>16.097560975609756</v>
+        <v>26.829268292682926</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="2"/>
-        <v>14.042553191489361</v>
+        <v>23.404255319148938</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="2"/>
-        <v>13.2</v>
+        <v>22</v>
       </c>
       <c r="M15" s="25">
         <f t="shared" si="2"/>
-        <v>12.452830188679245</v>
+        <v>20.754716981132077</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="2"/>
-        <v>11.785714285714286</v>
+        <v>19.642857142857142</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>11.186440677966102</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>10.64516129032258</v>
+        <v>17.741935483870968</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="2"/>
-        <v>10.153846153846153</v>
+        <v>16.923076923076923</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="2"/>
-        <v>9.7058823529411757</v>
+        <v>16.176470588235293</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="1"/>
-        <v>9.295774647887324</v>
+        <v>15.492957746478874</v>
       </c>
       <c r="T15" s="25">
         <f t="shared" si="1"/>
-        <v>8.9189189189189193</v>
+        <v>14.864864864864865</v>
       </c>
       <c r="U15" s="25">
         <f t="shared" si="3"/>
-        <v>8.5714285714285712</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -4269,83 +4404,83 @@
       </c>
       <c r="B16" s="25">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C16" s="25">
         <f t="shared" si="2"/>
-        <v>31.304347826086957</v>
+        <v>52.173913043478258</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="4"/>
-        <v>27.692307692307693</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="2"/>
-        <v>24.827586206896552</v>
+        <v>41.379310344827587</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="4"/>
-        <v>22.5</v>
+        <v>37.5</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="2"/>
-        <v>20.571428571428573</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="H16" s="25">
         <f t="shared" si="4"/>
-        <v>18.94736842105263</v>
+        <v>31.578947368421051</v>
       </c>
       <c r="I16" s="25">
         <f t="shared" si="2"/>
-        <v>17.560975609756099</v>
+        <v>29.26829268292683</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="4"/>
-        <v>16.363636363636363</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="2"/>
-        <v>15.319148936170214</v>
+        <v>25.531914893617021</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="2"/>
-        <v>14.4</v>
+        <v>24</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="2"/>
-        <v>13.584905660377359</v>
+        <v>22.641509433962263</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="2"/>
-        <v>12.857142857142858</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>12.203389830508474</v>
+        <v>20.338983050847457</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="2"/>
-        <v>11.612903225806452</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="2"/>
-        <v>11.076923076923077</v>
+        <v>18.46153846153846</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="2"/>
-        <v>10.588235294117647</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="1"/>
-        <v>10.140845070422536</v>
+        <v>16.901408450704224</v>
       </c>
       <c r="T16" s="25">
         <f t="shared" si="1"/>
-        <v>9.7297297297297298</v>
+        <v>16.216216216216218</v>
       </c>
       <c r="U16" s="25">
         <f t="shared" si="3"/>
-        <v>9.3506493506493502</v>
+        <v>15.584415584415584</v>
       </c>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -4356,83 +4491,83 @@
       </c>
       <c r="B17" s="25">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C17" s="25">
         <f t="shared" si="2"/>
-        <v>33.913043478260867</v>
+        <v>56.521739130434781</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" si="2"/>
-        <v>26.896551724137932</v>
+        <v>44.827586206896555</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="4"/>
-        <v>24.375</v>
+        <v>40.625</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="2"/>
-        <v>22.285714285714285</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="4"/>
-        <v>20.526315789473685</v>
+        <v>34.210526315789473</v>
       </c>
       <c r="I17" s="25">
         <f t="shared" si="2"/>
-        <v>19.024390243902438</v>
+        <v>31.707317073170731</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="4"/>
-        <v>17.727272727272727</v>
+        <v>29.545454545454547</v>
       </c>
       <c r="K17" s="25">
         <f t="shared" si="2"/>
-        <v>16.595744680851062</v>
+        <v>27.659574468085108</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="2"/>
-        <v>15.6</v>
+        <v>26</v>
       </c>
       <c r="M17" s="25">
         <f t="shared" si="2"/>
-        <v>14.716981132075471</v>
+        <v>24.528301886792452</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="2"/>
-        <v>13.928571428571429</v>
+        <v>23.214285714285715</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>13.220338983050848</v>
+        <v>22.033898305084747</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="2"/>
-        <v>12.580645161290322</v>
+        <v>20.967741935483872</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="2"/>
-        <v>11.470588235294118</v>
+        <v>19.117647058823529</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="1"/>
-        <v>10.985915492957746</v>
+        <v>18.309859154929576</v>
       </c>
       <c r="T17" s="25">
         <f t="shared" si="1"/>
-        <v>10.54054054054054</v>
+        <v>17.567567567567568</v>
       </c>
       <c r="U17" s="25">
         <f t="shared" si="3"/>
-        <v>10.129870129870129</v>
+        <v>16.883116883116884</v>
       </c>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -4443,83 +4578,83 @@
       </c>
       <c r="B18" s="25">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>36.521739130434781</v>
+        <v>60.869565217391305</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="4"/>
-        <v>32.307692307692307</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>28.96551724137931</v>
+        <v>48.275862068965516</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="4"/>
-        <v>26.25</v>
+        <v>43.75</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H18" s="25">
         <f t="shared" si="4"/>
-        <v>22.105263157894736</v>
+        <v>36.842105263157897</v>
       </c>
       <c r="I18" s="25">
         <f t="shared" si="2"/>
-        <v>20.487804878048781</v>
+        <v>34.146341463414636</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="4"/>
-        <v>19.09090909090909</v>
+        <v>31.818181818181817</v>
       </c>
       <c r="K18" s="25">
         <f t="shared" si="2"/>
-        <v>17.872340425531913</v>
+        <v>29.787234042553191</v>
       </c>
       <c r="L18" s="25">
         <f t="shared" si="2"/>
-        <v>16.8</v>
+        <v>28</v>
       </c>
       <c r="M18" s="25">
         <f t="shared" si="2"/>
-        <v>15.849056603773585</v>
+        <v>26.415094339622641</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>14.23728813559322</v>
+        <v>23.728813559322035</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="2"/>
-        <v>13.548387096774194</v>
+        <v>22.580645161290324</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="2"/>
-        <v>12.923076923076923</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="2"/>
-        <v>12.352941176470589</v>
+        <v>20.588235294117649</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="1"/>
-        <v>11.830985915492958</v>
+        <v>19.718309859154928</v>
       </c>
       <c r="T18" s="25">
         <f t="shared" si="1"/>
-        <v>11.351351351351351</v>
+        <v>18.918918918918919</v>
       </c>
       <c r="U18" s="25">
         <f t="shared" si="3"/>
-        <v>10.909090909090908</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
@@ -4530,83 +4665,83 @@
       </c>
       <c r="B19" s="25">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" si="2"/>
-        <v>39.130434782608695</v>
+        <v>65.217391304347828</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="4"/>
-        <v>34.615384615384613</v>
+        <v>57.692307692307693</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="2"/>
-        <v>31.03448275862069</v>
+        <v>51.724137931034484</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="4"/>
-        <v>28.125</v>
+        <v>46.875</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="2"/>
-        <v>25.714285714285715</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="H19" s="25">
         <f t="shared" si="4"/>
-        <v>23.684210526315791</v>
+        <v>39.473684210526315</v>
       </c>
       <c r="I19" s="25">
         <f t="shared" si="2"/>
-        <v>21.951219512195124</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="4"/>
-        <v>20.454545454545453</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="K19" s="25">
         <f t="shared" si="2"/>
-        <v>19.148936170212767</v>
+        <v>31.914893617021278</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M19" s="25">
         <f t="shared" si="2"/>
-        <v>16.981132075471699</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="2"/>
-        <v>16.071428571428573</v>
+        <v>26.785714285714285</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>15.254237288135593</v>
+        <v>25.423728813559322</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="2"/>
-        <v>14.516129032258064</v>
+        <v>24.193548387096776</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="2"/>
-        <v>13.846153846153847</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="2"/>
-        <v>13.235294117647058</v>
+        <v>22.058823529411764</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="1"/>
-        <v>12.67605633802817</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="T19" s="25">
         <f t="shared" si="1"/>
-        <v>12.162162162162161</v>
+        <v>20.27027027027027</v>
       </c>
       <c r="U19" s="25">
         <f t="shared" si="3"/>
-        <v>11.688311688311689</v>
+        <v>19.480519480519479</v>
       </c>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -4617,83 +4752,83 @@
       </c>
       <c r="B20" s="25">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C20" s="25">
         <f t="shared" si="2"/>
-        <v>41.739130434782609</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="4"/>
-        <v>36.92307692307692</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" si="2"/>
-        <v>33.103448275862071</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="2"/>
-        <v>27.428571428571427</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="4"/>
-        <v>25.263157894736842</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="I20" s="25">
         <f t="shared" si="2"/>
-        <v>23.414634146341463</v>
+        <v>39.024390243902438</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="4"/>
-        <v>21.818181818181817</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="K20" s="25">
         <f t="shared" si="2"/>
-        <v>20.425531914893618</v>
+        <v>34.042553191489361</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>32</v>
       </c>
       <c r="M20" s="25">
         <f t="shared" si="2"/>
-        <v>18.113207547169811</v>
+        <v>30.188679245283019</v>
       </c>
       <c r="N20" s="25">
         <f t="shared" si="2"/>
-        <v>17.142857142857142</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>16.271186440677965</v>
+        <v>27.118644067796609</v>
       </c>
       <c r="P20" s="25">
         <f t="shared" si="2"/>
-        <v>15.483870967741936</v>
+        <v>25.806451612903224</v>
       </c>
       <c r="Q20" s="25">
         <f t="shared" si="2"/>
-        <v>14.76923076923077</v>
+        <v>24.615384615384617</v>
       </c>
       <c r="R20" s="25">
         <f t="shared" si="2"/>
-        <v>14.117647058823529</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="1"/>
-        <v>13.52112676056338</v>
+        <v>22.535211267605632</v>
       </c>
       <c r="T20" s="25">
         <f t="shared" si="1"/>
-        <v>12.972972972972974</v>
+        <v>21.621621621621621</v>
       </c>
       <c r="U20" s="25">
         <f t="shared" si="3"/>
-        <v>12.467532467532468</v>
+        <v>20.779220779220779</v>
       </c>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -4704,83 +4839,83 @@
       </c>
       <c r="B21" s="25">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C21" s="25">
         <f t="shared" si="2"/>
-        <v>44.347826086956523</v>
+        <v>73.913043478260875</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="4"/>
-        <v>39.230769230769234</v>
+        <v>65.384615384615387</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" si="2"/>
-        <v>35.172413793103445</v>
+        <v>58.620689655172413</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="4"/>
-        <v>31.875</v>
+        <v>53.125</v>
       </c>
       <c r="G21" s="25">
         <f t="shared" si="2"/>
-        <v>29.142857142857142</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="4"/>
-        <v>26.842105263157894</v>
+        <v>44.736842105263158</v>
       </c>
       <c r="I21" s="25">
         <f t="shared" si="2"/>
-        <v>24.878048780487806</v>
+        <v>41.463414634146339</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="4"/>
-        <v>23.181818181818183</v>
+        <v>38.636363636363633</v>
       </c>
       <c r="K21" s="25">
         <f t="shared" si="2"/>
-        <v>21.702127659574469</v>
+        <v>36.170212765957444</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>34</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="2"/>
-        <v>19.245283018867923</v>
+        <v>32.075471698113205</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="2"/>
-        <v>18.214285714285715</v>
+        <v>30.357142857142858</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>17.288135593220339</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="2"/>
-        <v>16.451612903225808</v>
+        <v>27.419354838709676</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="2"/>
-        <v>15.692307692307692</v>
+        <v>26.153846153846153</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" ref="S21:W23" si="5">($A21*($B$1+$B$2))/(100+$E$1*S$4)</f>
-        <v>14.366197183098592</v>
+        <v>23.943661971830984</v>
       </c>
       <c r="T21" s="25">
         <f t="shared" si="5"/>
-        <v>13.783783783783784</v>
+        <v>22.972972972972972</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" si="5"/>
-        <v>13.246753246753247</v>
+        <v>22.077922077922079</v>
       </c>
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
@@ -4791,83 +4926,83 @@
       </c>
       <c r="B22" s="25">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C22" s="25">
         <f t="shared" si="2"/>
-        <v>46.956521739130437</v>
+        <v>78.260869565217391</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="4"/>
-        <v>41.53846153846154</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="2"/>
-        <v>37.241379310344826</v>
+        <v>62.068965517241381</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="4"/>
-        <v>33.75</v>
+        <v>56.25</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="2"/>
-        <v>30.857142857142858</v>
+        <v>51.428571428571431</v>
       </c>
       <c r="H22" s="25">
         <f t="shared" si="4"/>
-        <v>28.421052631578949</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="I22" s="25">
         <f t="shared" si="2"/>
-        <v>26.341463414634145</v>
+        <v>43.902439024390247</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="4"/>
-        <v>24.545454545454547</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="K22" s="25">
         <f t="shared" si="2"/>
-        <v>22.978723404255319</v>
+        <v>38.297872340425535</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="2"/>
-        <v>21.6</v>
+        <v>36</v>
       </c>
       <c r="M22" s="25">
         <f t="shared" si="2"/>
-        <v>20.377358490566039</v>
+        <v>33.962264150943398</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="2"/>
-        <v>19.285714285714285</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>18.305084745762713</v>
+        <v>30.508474576271187</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="2"/>
-        <v>17.419354838709676</v>
+        <v>29.032258064516128</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="2"/>
-        <v>16.615384615384617</v>
+        <v>27.692307692307693</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="2"/>
-        <v>15.882352941176471</v>
+        <v>26.470588235294116</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="5"/>
-        <v>15.211267605633802</v>
+        <v>25.35211267605634</v>
       </c>
       <c r="T22" s="25">
         <f t="shared" si="5"/>
-        <v>14.594594594594595</v>
+        <v>24.324324324324323</v>
       </c>
       <c r="U22" s="25">
         <f t="shared" si="5"/>
-        <v>14.025974025974026</v>
+        <v>23.376623376623378</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
@@ -4878,83 +5013,83 @@
       </c>
       <c r="B23" s="25">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C23" s="25">
         <f t="shared" si="2"/>
-        <v>49.565217391304351</v>
+        <v>82.608695652173907</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="4"/>
-        <v>43.846153846153847</v>
+        <v>73.07692307692308</v>
       </c>
       <c r="E23" s="25">
         <f t="shared" si="2"/>
-        <v>39.310344827586206</v>
+        <v>65.517241379310349</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="4"/>
-        <v>35.625</v>
+        <v>59.375</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="2"/>
-        <v>32.571428571428569</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I23" s="25">
         <f t="shared" si="2"/>
-        <v>27.804878048780488</v>
+        <v>46.341463414634148</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="4"/>
-        <v>25.90909090909091</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="K23" s="25">
         <f t="shared" si="2"/>
-        <v>24.25531914893617</v>
+        <v>40.425531914893618</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="2"/>
-        <v>22.8</v>
+        <v>38</v>
       </c>
       <c r="M23" s="25">
         <f t="shared" si="2"/>
-        <v>21.509433962264151</v>
+        <v>35.849056603773583</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="2"/>
-        <v>20.357142857142858</v>
+        <v>33.928571428571431</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>19.322033898305083</v>
+        <v>32.203389830508478</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="2"/>
-        <v>18.387096774193548</v>
+        <v>30.64516129032258</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="2"/>
-        <v>17.53846153846154</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="2"/>
-        <v>16.764705882352942</v>
+        <v>27.941176470588236</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="5"/>
-        <v>16.056338028169016</v>
+        <v>26.760563380281692</v>
       </c>
       <c r="T23" s="25">
         <f t="shared" si="5"/>
-        <v>15.405405405405405</v>
+        <v>25.675675675675677</v>
       </c>
       <c r="U23" s="25">
         <f t="shared" si="5"/>
-        <v>14.805194805194805</v>
+        <v>24.675324675324674</v>
       </c>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
@@ -4989,88 +5124,88 @@
       </c>
       <c r="B25" s="25">
         <f>AVERAGE(B5:B23)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" s="25">
         <f>AVERAGE(C5:C23)</f>
-        <v>26.086956521739133</v>
+        <v>43.478260869565219</v>
       </c>
       <c r="D25" s="25">
         <f>AVERAGE(D5:D23)</f>
-        <v>23.076923076923077</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" ref="E25:U25" si="6">AVERAGE(E5:E23)</f>
-        <v>20.68965517241379</v>
+        <v>34.482758620689658</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="6"/>
-        <v>18.75</v>
+        <v>31.25</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="6"/>
-        <v>17.142857142857139</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="H25" s="25">
         <f t="shared" si="6"/>
-        <v>15.789473684210526</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="I25" s="25">
         <f t="shared" si="6"/>
-        <v>14.634146341463415</v>
+        <v>24.390243902439021</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="6"/>
-        <v>13.636363636363638</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="K25" s="25">
         <f t="shared" si="6"/>
-        <v>12.765957446808512</v>
+        <v>21.276595744680851</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M25" s="25">
         <f t="shared" si="6"/>
-        <v>11.320754716981133</v>
+        <v>18.867924528301888</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
-        <v>10.714285714285715</v>
+        <v>17.857142857142861</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="6"/>
-        <v>10.169491525423728</v>
+        <v>16.949152542372879</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="6"/>
-        <v>9.6774193548387082</v>
+        <v>16.129032258064512</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="6"/>
-        <v>9.2307692307692317</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="6"/>
-        <v>8.8235294117647047</v>
+        <v>14.705882352941178</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="6"/>
-        <v>8.4507042253521139</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="T25" s="25">
         <f t="shared" si="6"/>
-        <v>8.1081081081081088</v>
+        <v>13.513513513513514</v>
       </c>
       <c r="U25" s="25">
         <f t="shared" si="6"/>
-        <v>7.7922077922077921</v>
+        <v>12.987012987012989</v>
       </c>
       <c r="V25" s="25"/>
       <c r="W25" s="25">
         <f>AVERAGE(B25:U25)</f>
-        <v>14.442980155125525</v>
+        <v>24.071633591875866</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -5116,7 +5251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3080BAA4-EB78-4D76-9110-2CF63598EB36}">
   <dimension ref="A1:AZ63"/>
   <sheetViews>
@@ -16332,4 +16467,168 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEB30D9-8075-4ED2-8854-880A5DCEFD65}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>